--- a/Octoscope_Configuration_temp.xlsx
+++ b/Octoscope_Configuration_temp.xlsx
@@ -454,7 +454,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -825,25 +825,25 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>24</v>
@@ -857,25 +857,25 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>24</v>
@@ -901,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>13</v>
@@ -933,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>13</v>
@@ -953,25 +953,25 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>24</v>
@@ -985,25 +985,25 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>24</v>
@@ -1029,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>19</v>
@@ -1061,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>19</v>
@@ -1081,25 +1081,25 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>29</v>
+      <c r="E20" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>24</v>
@@ -1113,25 +1113,25 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>29</v>
+      <c r="E21" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>24</v>
@@ -1156,8 +1156,8 @@
       <c r="D22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>31</v>
+      <c r="E22" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>13</v>
@@ -1188,8 +1188,8 @@
       <c r="D23" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>31</v>
+      <c r="E23" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>13</v>
@@ -1209,25 +1209,25 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>24</v>
@@ -1241,25 +1241,25 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>24</v>
@@ -1285,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>19</v>
@@ -1317,7 +1317,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>19</v>
